--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y85"/>
+  <dimension ref="A1:Y84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
@@ -2873,12 +2873,13 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Carlie</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
@@ -2941,13 +2942,12 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X44" t="inlineStr"/>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
@@ -3040,7 +3040,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -3095,12 +3095,13 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until noon</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3116,21 +3117,9 @@
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3155,22 +3144,9 @@
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>@ Store,
-Until noon</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
@@ -3232,7 +3208,11 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3255,7 +3235,11 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:30 AM START </t>
+        </is>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
@@ -3277,7 +3261,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3309,7 +3293,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:30 AM START </t>
+          <t xml:space="preserve">MODAS-SCAN </t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3333,7 +3317,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #43, BYRON MOBIL</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3364,7 +3348,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t xml:space="preserve">MODAS-SCAN </t>
+          <t>KELLEY #29, HARRISON AVE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3384,7 +3368,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>KELLEY #43, BYRON MOBIL</t>
+          <t>100 S UNION</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3415,7 +3399,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>KELLEY #29, HARRISON AVE MOBIL, ROCKFORD</t>
+          <t>2624 STOWMARKET AVE</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3447,7 +3431,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>100 S UNION</t>
+          <t>https://goo.gl/maps/XQfApdUHTqz</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3478,7 +3462,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>2624 STOWMARKET AVE</t>
+          <t>https://goo.gl/maps/as8c6yxHpQS2</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3508,7 +3492,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/XQfApdUHTqz</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3539,7 +3523,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/as8c6yxHpQS2</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3577,11 +3561,7 @@
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
-        </is>
-      </c>
+      <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3608,11 +3588,7 @@
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
@@ -3639,9 +3615,21 @@
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3666,9 +3654,21 @@
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
@@ -3696,19 +3696,15 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3723,17 +3719,17 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>work w/ Michael</t>
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
@@ -3767,12 +3763,12 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3790,19 +3786,15 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Amy</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>work w/ Michael</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
@@ -3835,12 +3827,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3862,12 +3854,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3902,12 +3894,12 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3929,12 +3921,12 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3959,16 +3951,8 @@
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
@@ -3988,15 +3972,19 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
@@ -4040,19 +4028,15 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
@@ -4061,7 +4045,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
@@ -4093,16 +4077,8 @@
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
@@ -4112,7 +4088,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Mariah</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
@@ -4155,12 +4131,13 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Mariah</t>
+          <t>Matthew</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Carlie</t>
         </is>
       </c>
       <c r="P65" t="inlineStr"/>
@@ -4198,13 +4175,12 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
@@ -4238,7 +4214,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -4289,7 +4265,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
@@ -4336,7 +4312,7 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
@@ -4380,21 +4356,9 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
@@ -4468,7 +4432,11 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
@@ -4509,7 +4477,7 @@
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4540,7 +4508,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4571,7 +4539,7 @@
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
+          <t>5810 E STATE ST</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4602,7 +4570,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>5810 E STATE ST</t>
+          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4633,7 +4601,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4662,11 +4630,7 @@
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags   </t>
-        </is>
-      </c>
+      <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
@@ -4692,9 +4656,21 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr"/>
@@ -4721,17 +4697,17 @@
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>work w/ Angela</t>
         </is>
       </c>
       <c r="P80" t="inlineStr"/>
@@ -4760,17 +4736,17 @@
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>Amy</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>work w/ Angela</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="P81" t="inlineStr"/>
@@ -4799,19 +4775,15 @@
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr"/>
@@ -4838,12 +4810,12 @@
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -4873,12 +4845,12 @@
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
@@ -4893,41 +4865,6 @@
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr"/>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -1163,7 +1163,12 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
@@ -1311,7 +1316,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
@@ -1390,15 +1395,10 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3926,10 +3926,14 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Laci</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
@@ -3977,14 +3981,10 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
@@ -4026,16 +4026,8 @@
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -3481,7 +3481,7 @@
         <is>
           <t>Driver,
 Silver Van,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
@@ -3999,7 +3999,8 @@
       <c r="O62" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx
+until 11:30</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -882,7 +882,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/MtvoBLPapL22</t>
+          <t>https://maps.app.goo.gl/ygCLv4oGaHMKBeWJ9</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -2329,7 +2329,8 @@
       <c r="W36" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van</t>
+Silver Van,
+Trainer</t>
         </is>
       </c>
       <c r="X36" t="inlineStr"/>
@@ -2798,7 +2799,9 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ 
+Nate</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -4043,7 +4046,8 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -4086,7 +4090,8 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Leyna</t>
         </is>
       </c>
       <c r="P64" t="inlineStr"/>

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -1713,7 +1713,7 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
-          <t>PICK #417 +RX, WEST BEND - WASHINGTON</t>
+          <t>PICK #417, WEST BEND - WASHINGTON (NO RX COUNT)</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -2056,8 +2056,7 @@
       <c r="W32" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Silver Van,
-Supv Rx</t>
+Silver Van</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2258,11 +2257,7 @@
           <t>Joseph</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+      <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
     </row>

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -1106,7 +1106,11 @@
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>PER WAYNE - GO TO THE BACK DOOR IN THE PARKING LOT, ELEVATED PLATFORM</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
@@ -1178,21 +1182,9 @@
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Driver from WI Dells, Equip</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
@@ -1255,15 +1247,19 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Driver from WI Dells, Equip</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1331,19 +1327,15 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Camry 3 to Dells</t>
-        </is>
-      </c>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1408,9 +1400,21 @@
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Camry 3 to Dells</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1503,11 +1507,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
@@ -1548,7 +1548,7 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -1583,7 +1583,7 @@
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>PICK #348 +RX, OAK CREEK - 27TH ST</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -1650,7 +1650,7 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>6462 S 27TH ST</t>
+          <t>PICK #348 +RX, OAK CREEK - 27TH ST</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Ya5hSzVYqX42</t>
+          <t>6462 S 27TH ST</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1770,7 +1770,7 @@
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
-          <t>*IL Meet is 4:30 am at IL Office</t>
+          <t>https://goo.gl/maps/Ya5hSzVYqX42</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -1807,7 +1807,11 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>*IL Meet is 4:30 am at IL Office</t>
+        </is>
+      </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -1841,21 +1845,9 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
@@ -1894,17 +1886,17 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -1953,19 +1945,17 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Red Camry,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
@@ -2027,19 +2017,19 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
           <t>Driver, 1/2
 Red Camry,
-Rx</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -2097,17 +2087,19 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver, 1/2
+Red Camry,
+Rx</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -2165,12 +2157,12 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -2233,12 +2225,12 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -2297,12 +2289,12 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -2374,12 +2366,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -2463,12 +2455,12 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -2534,12 +2526,12 @@
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -2609,12 +2601,12 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -2689,12 +2681,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -2768,12 +2760,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2850,12 +2842,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -2919,12 +2911,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -2986,12 +2978,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Trevor</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -3055,9 +3047,21 @@
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Trevor</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
@@ -3155,11 +3159,7 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3200,7 +3200,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3251,7 +3251,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>KELLEY #21, ROSCOE MOBIL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3307,7 +3307,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>9789 N SECOND ST</t>
+          <t>KELLEY #21, ROSCOE MOBIL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3358,7 +3358,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kHAFha26ttH2</t>
+          <t>9789 N SECOND ST</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>https://goo.gl/maps/kHAFha26ttH2</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3484,7 +3484,11 @@
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3542,21 +3546,9 @@
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3603,15 +3595,19 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
@@ -3682,12 +3678,12 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3749,12 +3745,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3813,12 +3809,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3880,12 +3876,12 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3949,8 +3945,16 @@
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -1802,8 +1802,16 @@
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
@@ -1877,11 +1885,7 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
@@ -1938,7 +1942,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O31" t="inlineStr"/>
@@ -2010,7 +2014,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>KELLEY #75, WATTS RD MOBIL, MADISON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2080,7 +2084,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>8230 WATTS RD</t>
+          <t>KELLEY #75, WATTS RD MOBIL, MADISON</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2150,7 +2154,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QhLHSHo8N7F2</t>
+          <t>8230 WATTS RD</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2218,7 +2222,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:15 am at IL Office</t>
+          <t>https://goo.gl/maps/QhLHSHo8N7F2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2282,7 +2286,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+          <t>*IL Meet is 5:15 am at IL Office</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2361,7 +2365,11 @@
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
@@ -2436,22 +2444,9 @@
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3, Equip</t>
-        </is>
-      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
@@ -2514,15 +2509,20 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Driver,
+Camry 3, Equip</t>
+        </is>
+      </c>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
@@ -2585,19 +2585,15 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>@ Store, Until Noon</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2664,18 +2660,17 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry</t>
+          <t>@ Store, Until Noon</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2744,7 +2739,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -2826,7 +2821,7 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -3693,7 +3693,12 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="W57" t="inlineStr"/>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3891,7 +3896,11 @@
           <t>Tina E</t>
         </is>
       </c>
-      <c r="W60" t="inlineStr"/>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -4001,8 +4010,16 @@
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -3678,7 +3678,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -3959,7 +3959,11 @@
           <t>Nate</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>*Silver Van wipers</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -4020,7 +4024,11 @@
           <t>Tina E</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Until  8:30</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -3042,21 +3042,9 @@
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
@@ -3154,7 +3142,11 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3195,7 +3187,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -3246,7 +3238,7 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>KELLEY #21, ROSCOE MOBIL</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3302,7 +3294,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>KELLEY #21, ROSCOE MOBIL</t>
+          <t>9789 N SECOND ST</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3353,7 +3345,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>9789 N SECOND ST</t>
+          <t>https://goo.gl/maps/kHAFha26ttH2</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3416,7 +3408,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kHAFha26ttH2</t>
+          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3479,11 +3471,7 @@
       </c>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Please be careful to scan only product barcodes, and not the shelf scan tags  </t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3541,9 +3529,21 @@
         </is>
       </c>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3590,19 +3590,15 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
@@ -3673,12 +3669,12 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3745,12 +3741,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3809,12 +3805,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3876,15 +3872,19 @@
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>*Silver Van wipers</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
@@ -3951,17 +3951,17 @@
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>*Silver Van wipers</t>
+          <t>Until  8:30</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
@@ -4014,21 +4014,9 @@
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Until  8:30</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -3959,11 +3959,7 @@
           <t>Tina E</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>Until  8:30</t>
-        </is>
-      </c>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -3546,7 +3546,11 @@
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>*IL Meet is 6:00 am at IL Office</t>
+        </is>
+      </c>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
@@ -3600,21 +3604,9 @@
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
     </row>
@@ -3681,18 +3673,17 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -3753,15 +3744,20 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3817,12 +3813,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3888,19 +3884,15 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3961,9 +3953,21 @@
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -3747,17 +3747,8 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3821,7 +3812,12 @@
           <t>Emily L</t>
         </is>
       </c>
-      <c r="W59" t="inlineStr"/>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>

--- a/01-11-26 to 01-17-26 Madison Schedule.xlsx
+++ b/01-11-26 to 01-17-26 Madison Schedule.xlsx
@@ -3747,8 +3747,17 @@
           <t>2)</t>
         </is>
       </c>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Driver,
+Gray Van</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3809,15 +3818,10 @@
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>Driver,
-Gray Van</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr"/>
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
     </row>
@@ -3885,10 +3889,14 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
     </row>
@@ -3949,21 +3957,9 @@
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
       <c r="X61" t="inlineStr"/>
       <c r="Y61" t="inlineStr"/>
     </row>
